--- a/4-3FeatureSelection.xlsx
+++ b/4-3FeatureSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDisk\Resilio\folder2\toto_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF35A66C-10F3-48B2-AD71-92DC05C539AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35171B-D841-43A9-BDA0-49F6FDE3F269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AB6365CC-8F71-4EC8-AE75-1FF780EC2BFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AB6365CC-8F71-4EC8-AE75-1FF780EC2BFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,27 +571,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -23683,10 +23663,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:CI86">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>-0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23699,8 +23679,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE0BD50-5DD6-4DC7-B325-AADE243F2E70}">
   <dimension ref="A1:CI87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46336,10 +46319,10 @@
     <sortCondition descending="1" ref="B2:B86"/>
   </sortState>
   <conditionalFormatting sqref="C2:CI86">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>-0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46351,7 +46334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD96F5-8196-44B8-95B9-DFA1DF5CECD0}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -51926,10 +51909,10 @@
   </sheetData>
   <autoFilter ref="A1:CY23" xr:uid="{EF09F979-A02B-43F1-8884-010ADEBB39D3}"/>
   <conditionalFormatting sqref="C2 C8:CI9 C15:CI15 D11:E11 C17:CI17 D16 C20:D20 D18 C22:D22 D21 D23 E3 D14:E14 F4 D13 F16 F20:G22 H11:J11 H18:CI18 H5 I16:CI16 I2:J3 I10:J10 I20:CI22 J5:CI5 H14:CI14 H12:I12 L2:CI4 J6:J7 L6:CI7 H13:J13 L10:CI13 H19:J19 L19:CI19 I23:J23 L23:CI23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
